--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/20/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.93019999999999</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.374</v>
+        <v>16.3582</v>
       </c>
     </row>
     <row r="5">
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.718</v>
+        <v>-21.83800000000001</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5284</v>
+        <v>-21.5329</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -678,12 +678,12 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.41720000000001</v>
+        <v>16.4986</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.8667</v>
+        <v>-21.93300000000001</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -882,12 +882,12 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.23129999999999</v>
+        <v>16.0421</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.76859999999998</v>
+        <v>-21.86129999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.92680000000001</v>
+        <v>-21.8793</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.84890000000001</v>
+        <v>-21.89500000000002</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -967,12 +967,12 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.48780000000001</v>
+        <v>16.6153</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.33789999999999</v>
+        <v>-21.3512</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1035,12 +1035,12 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.5541</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.8351</v>
+        <v>-19.8694</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1069,12 +1069,12 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.6214</v>
+        <v>16.59750000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.12409999999999</v>
+        <v>-19.08679999999999</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.17209999999999</v>
+        <v>16.16069999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.142</v>
+        <v>17.01490000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1205,12 +1205,12 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.5883</v>
+        <v>16.7553</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.7796</v>
+        <v>-21.77290000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.03390000000001</v>
+        <v>17.09390000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.6239</v>
+        <v>-21.62589999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.43810000000001</v>
+        <v>-22.43880000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.1675</v>
+        <v>-22.1071</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.61920000000001</v>
+        <v>16.6999</v>
       </c>
     </row>
     <row r="58">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.48449999999998</v>
+        <v>-21.47319999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.71749999999997</v>
+        <v>-21.71999999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.78439999999999</v>
+        <v>-21.74899999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.70479999999999</v>
+        <v>-19.59529999999998</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.35679999999999</v>
+        <v>16.49109999999999</v>
       </c>
     </row>
     <row r="82">
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9258</v>
+        <v>-21.9495</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.621</v>
+        <v>16.499</v>
       </c>
     </row>
     <row r="84">
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.9994</v>
+        <v>-21.9605</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.41940000000001</v>
+        <v>-21.41920000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.36659999999999</v>
+        <v>-21.4182</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.00659999999999</v>
+        <v>-19.93849999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.3849</v>
+        <v>16.25599999999999</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.67829999999999</v>
+        <v>16.55159999999999</v>
       </c>
     </row>
   </sheetData>
